--- a/data-raw/bases_limpias/corte.xlsx
+++ b/data-raw/bases_limpias/corte.xlsx
@@ -8,14 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\usuario\Desktop\ESCRITORIO HP\R_packages\puy\puy\data-raw\bases_limpias\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{881F0346-7938-4F3B-8B35-C9CDF0BF20D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DB4752B-BF3B-46B8-A4D9-8990E42ECE92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4CDDDA3B-DD1F-435C-A051-AF2851F4F935}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="13096" xr2:uid="{4CDDDA3B-DD1F-435C-A051-AF2851F4F935}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$I$54</definedName>
+  </definedNames>
+  <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="62">
   <si>
     <t>politico</t>
   </si>
@@ -66,9 +69,6 @@
     <t xml:space="preserve">Rodriguez, Renan </t>
   </si>
   <si>
-    <t>PC</t>
-  </si>
-  <si>
     <t>NEUTRAL</t>
   </si>
   <si>
@@ -78,9 +78,6 @@
     <t xml:space="preserve">Garcia Pintos, Pablo </t>
   </si>
   <si>
-    <t>PN</t>
-  </si>
-  <si>
     <t xml:space="preserve">Fernandez Menendez, Eladio </t>
   </si>
   <si>
@@ -138,9 +135,6 @@
     <t xml:space="preserve">Salvo Slotz, Washington </t>
   </si>
   <si>
-    <t>FA</t>
-  </si>
-  <si>
     <t xml:space="preserve">Martinez Zimarioff, Edgardo </t>
   </si>
   <si>
@@ -156,9 +150,6 @@
     <t>Arocena, Jose</t>
   </si>
   <si>
-    <t>PI</t>
-  </si>
-  <si>
     <t>Pesqueira, Walter</t>
   </si>
   <si>
@@ -180,9 +171,6 @@
     <t>Demarco, Mariella</t>
   </si>
   <si>
-    <t>Pi</t>
-  </si>
-  <si>
     <t>KORZENIAK, Jose Ignacio </t>
   </si>
   <si>
@@ -223,6 +211,18 @@
   </si>
   <si>
     <t>Secretario Corte Electoral</t>
+  </si>
+  <si>
+    <t>Frente Ampilio</t>
+  </si>
+  <si>
+    <t>Partido Colorado</t>
+  </si>
+  <si>
+    <t>Partido Independiente</t>
+  </si>
+  <si>
+    <t>Partido Nacional</t>
   </si>
 </sst>
 </file>
@@ -580,12 +580,15 @@
   <dimension ref="A1:I54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="2" max="2" width="19.6640625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -614,12 +617,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>10</v>
+        <v>59</v>
       </c>
       <c r="C2" s="1">
         <v>1985</v>
@@ -629,22 +632,22 @@
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H2" s="1"/>
       <c r="I2" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>10</v>
+        <v>59</v>
       </c>
       <c r="C3" s="1">
         <v>1985</v>
@@ -654,22 +657,22 @@
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H3" s="1"/>
       <c r="I3" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>14</v>
+        <v>61</v>
       </c>
       <c r="C4" s="1">
         <v>1985</v>
@@ -679,7 +682,7 @@
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
@@ -687,12 +690,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>14</v>
+        <v>61</v>
       </c>
       <c r="C5" s="1">
         <v>1985</v>
@@ -702,7 +705,7 @@
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
@@ -710,12 +713,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>10</v>
+        <v>59</v>
       </c>
       <c r="C6" s="1">
         <v>1985</v>
@@ -725,7 +728,7 @@
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
@@ -733,12 +736,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>10</v>
+        <v>59</v>
       </c>
       <c r="C7" s="1">
         <v>1985</v>
@@ -748,7 +751,7 @@
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
@@ -756,12 +759,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>14</v>
+        <v>61</v>
       </c>
       <c r="C8" s="1">
         <v>1985</v>
@@ -771,19 +774,19 @@
       </c>
       <c r="E8" s="1"/>
       <c r="F8" s="1" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H8" s="1"/>
       <c r="I8" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="1">
@@ -794,19 +797,19 @@
       </c>
       <c r="E9" s="1"/>
       <c r="F9" s="1" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H9" s="1"/>
       <c r="I9" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B10" s="1"/>
       <c r="C10" s="1">
@@ -817,22 +820,22 @@
       </c>
       <c r="E10" s="1"/>
       <c r="F10" s="1" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H10" s="1"/>
       <c r="I10" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A11" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>10</v>
+        <v>59</v>
       </c>
       <c r="C11" s="1">
         <v>1985</v>
@@ -842,7 +845,7 @@
       </c>
       <c r="E11" s="1"/>
       <c r="F11" s="1" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
@@ -850,12 +853,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A12" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>14</v>
+        <v>61</v>
       </c>
       <c r="C12" s="1">
         <v>1990</v>
@@ -865,22 +868,22 @@
       </c>
       <c r="E12" s="1"/>
       <c r="F12" s="1" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H12" s="1"/>
       <c r="I12" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A13" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>14</v>
+        <v>61</v>
       </c>
       <c r="C13" s="1">
         <v>1990</v>
@@ -890,22 +893,22 @@
       </c>
       <c r="E13" s="1"/>
       <c r="F13" s="1" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H13" s="1"/>
       <c r="I13" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A14" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>14</v>
+        <v>61</v>
       </c>
       <c r="C14" s="1">
         <v>1990</v>
@@ -915,22 +918,22 @@
       </c>
       <c r="E14" s="1"/>
       <c r="F14" s="1" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H14" s="1"/>
       <c r="I14" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A15" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>14</v>
+        <v>61</v>
       </c>
       <c r="C15" s="1">
         <v>1990</v>
@@ -940,7 +943,7 @@
       </c>
       <c r="E15" s="1"/>
       <c r="F15" s="1" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
@@ -948,12 +951,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A16" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>10</v>
+        <v>59</v>
       </c>
       <c r="C16" s="1">
         <v>1990</v>
@@ -963,22 +966,22 @@
       </c>
       <c r="E16" s="1"/>
       <c r="F16" s="1" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H16" s="1"/>
       <c r="I16" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A17" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>10</v>
+        <v>59</v>
       </c>
       <c r="C17" s="1">
         <v>1990</v>
@@ -988,7 +991,7 @@
       </c>
       <c r="E17" s="1"/>
       <c r="F17" s="1" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
@@ -996,12 +999,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A18" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>14</v>
+        <v>61</v>
       </c>
       <c r="C18" s="1">
         <v>1990</v>
@@ -1011,7 +1014,7 @@
       </c>
       <c r="E18" s="1"/>
       <c r="F18" s="1" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
@@ -1019,12 +1022,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A19" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>10</v>
+        <v>59</v>
       </c>
       <c r="C19" s="1">
         <v>1990</v>
@@ -1034,22 +1037,22 @@
       </c>
       <c r="E19" s="1"/>
       <c r="F19" s="1" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H19" s="1"/>
       <c r="I19" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A20" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>10</v>
+        <v>59</v>
       </c>
       <c r="C20" s="1">
         <v>1990</v>
@@ -1059,7 +1062,7 @@
       </c>
       <c r="E20" s="1"/>
       <c r="F20" s="1" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
@@ -1067,12 +1070,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A21" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>10</v>
+        <v>59</v>
       </c>
       <c r="C21" s="1">
         <v>1990</v>
@@ -1082,7 +1085,7 @@
       </c>
       <c r="E21" s="1"/>
       <c r="F21" s="1" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
@@ -1090,12 +1093,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A22" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>14</v>
+        <v>61</v>
       </c>
       <c r="C22" s="1">
         <v>1990</v>
@@ -1105,7 +1108,7 @@
       </c>
       <c r="E22" s="1"/>
       <c r="F22" s="1" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
@@ -1113,12 +1116,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A23" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>10</v>
+        <v>59</v>
       </c>
       <c r="C23" s="1">
         <v>1995</v>
@@ -1128,22 +1131,22 @@
       </c>
       <c r="E23" s="1"/>
       <c r="F23" s="1" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H23" s="1"/>
       <c r="I23" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A24" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>10</v>
+        <v>59</v>
       </c>
       <c r="C24" s="1">
         <v>1995</v>
@@ -1153,22 +1156,22 @@
       </c>
       <c r="E24" s="1"/>
       <c r="F24" s="1" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H24" s="1"/>
       <c r="I24" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A25" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>14</v>
+        <v>61</v>
       </c>
       <c r="C25" s="1">
         <v>1995</v>
@@ -1178,7 +1181,7 @@
       </c>
       <c r="E25" s="1"/>
       <c r="F25" s="1" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
@@ -1186,12 +1189,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A26" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>14</v>
+        <v>61</v>
       </c>
       <c r="C26" s="1">
         <v>1995</v>
@@ -1201,7 +1204,7 @@
       </c>
       <c r="E26" s="1"/>
       <c r="F26" s="1" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
@@ -1209,12 +1212,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A27" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>34</v>
+        <v>58</v>
       </c>
       <c r="C27" s="1">
         <v>1995</v>
@@ -1224,7 +1227,7 @@
       </c>
       <c r="E27" s="1"/>
       <c r="F27" s="1" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
@@ -1232,12 +1235,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A28" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>10</v>
+        <v>59</v>
       </c>
       <c r="C28" s="1">
         <v>1995</v>
@@ -1247,7 +1250,7 @@
       </c>
       <c r="E28" s="1"/>
       <c r="F28" s="1" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
@@ -1255,12 +1258,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A29" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>10</v>
+        <v>59</v>
       </c>
       <c r="C29" s="1">
         <v>1995</v>
@@ -1270,7 +1273,7 @@
       </c>
       <c r="E29" s="1"/>
       <c r="F29" s="1" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
@@ -1278,12 +1281,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A30" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>14</v>
+        <v>61</v>
       </c>
       <c r="C30" s="1">
         <v>1995</v>
@@ -1293,7 +1296,7 @@
       </c>
       <c r="E30" s="1"/>
       <c r="F30" s="1" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
@@ -1301,12 +1304,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A31" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>34</v>
+        <v>58</v>
       </c>
       <c r="C31" s="1">
         <v>1995</v>
@@ -1316,7 +1319,7 @@
       </c>
       <c r="E31" s="1"/>
       <c r="F31" s="1" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
@@ -1324,12 +1327,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A32" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>10</v>
+        <v>59</v>
       </c>
       <c r="C32" s="1">
         <v>1995</v>
@@ -1339,7 +1342,7 @@
       </c>
       <c r="E32" s="1"/>
       <c r="F32" s="1" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
@@ -1347,12 +1350,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A33" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>14</v>
+        <v>61</v>
       </c>
       <c r="C33" s="1">
         <v>1995</v>
@@ -1362,7 +1365,7 @@
       </c>
       <c r="E33" s="1"/>
       <c r="F33" s="1" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
@@ -1370,12 +1373,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A34" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="C34" s="1">
         <v>2010</v>
@@ -1385,22 +1388,22 @@
       </c>
       <c r="E34" s="1"/>
       <c r="F34" s="1" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H34" s="1"/>
       <c r="I34" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A35" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>34</v>
+        <v>58</v>
       </c>
       <c r="C35" s="1">
         <v>2010</v>
@@ -1410,22 +1413,22 @@
       </c>
       <c r="E35" s="1"/>
       <c r="F35" s="1" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H35" s="1"/>
       <c r="I35" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A36" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>34</v>
+        <v>58</v>
       </c>
       <c r="C36" s="1">
         <v>2010</v>
@@ -1435,7 +1438,7 @@
       </c>
       <c r="E36" s="1"/>
       <c r="F36" s="1" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="G36" s="1"/>
       <c r="H36" s="1"/>
@@ -1443,12 +1446,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A37" s="1" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>34</v>
+        <v>58</v>
       </c>
       <c r="C37" s="1">
         <v>2010</v>
@@ -1458,7 +1461,7 @@
       </c>
       <c r="E37" s="1"/>
       <c r="F37" s="1" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="G37" s="1"/>
       <c r="H37" s="1"/>
@@ -1466,12 +1469,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A38" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>34</v>
+        <v>58</v>
       </c>
       <c r="C38" s="1">
         <v>2010</v>
@@ -1481,7 +1484,7 @@
       </c>
       <c r="E38" s="1"/>
       <c r="F38" s="1" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="G38" s="1"/>
       <c r="H38" s="1"/>
@@ -1489,12 +1492,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A39" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>14</v>
+        <v>61</v>
       </c>
       <c r="C39" s="1">
         <v>2010</v>
@@ -1504,22 +1507,22 @@
       </c>
       <c r="E39" s="1"/>
       <c r="F39" s="1" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H39" s="1"/>
       <c r="I39" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A40" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>14</v>
+        <v>61</v>
       </c>
       <c r="C40" s="1">
         <v>2010</v>
@@ -1529,7 +1532,7 @@
       </c>
       <c r="E40" s="1"/>
       <c r="F40" s="1" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="G40" s="1"/>
       <c r="H40" s="1"/>
@@ -1537,12 +1540,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A41" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>10</v>
+        <v>59</v>
       </c>
       <c r="C41" s="1">
         <v>2010</v>
@@ -1552,7 +1555,7 @@
       </c>
       <c r="E41" s="1"/>
       <c r="F41" s="1" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="G41" s="1"/>
       <c r="H41" s="1"/>
@@ -1560,12 +1563,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A42" s="1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>10</v>
+        <v>59</v>
       </c>
       <c r="C42" s="1">
         <v>2010</v>
@@ -1575,7 +1578,7 @@
       </c>
       <c r="E42" s="1"/>
       <c r="F42" s="1" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="G42" s="1"/>
       <c r="H42" s="1"/>
@@ -1583,12 +1586,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A43" s="1" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="C43" s="1">
         <v>2010</v>
@@ -1598,7 +1601,7 @@
       </c>
       <c r="E43" s="1"/>
       <c r="F43" s="1" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="G43" s="1"/>
       <c r="H43" s="1"/>
@@ -1606,12 +1609,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A44" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="C44" s="1">
         <v>2015</v>
@@ -1621,22 +1624,22 @@
       </c>
       <c r="E44" s="1"/>
       <c r="F44" s="1" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H44" s="1"/>
       <c r="I44" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A45" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>34</v>
+        <v>58</v>
       </c>
       <c r="C45" s="1">
         <v>2015</v>
@@ -1646,22 +1649,22 @@
       </c>
       <c r="E45" s="1"/>
       <c r="F45" s="1" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H45" s="1"/>
       <c r="I45" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A46" s="1" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>34</v>
+        <v>58</v>
       </c>
       <c r="C46" s="1">
         <v>2015</v>
@@ -1671,22 +1674,22 @@
       </c>
       <c r="E46" s="1"/>
       <c r="F46" s="1" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H46" s="1"/>
       <c r="I46" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A47" s="1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>14</v>
+        <v>61</v>
       </c>
       <c r="C47" s="1">
         <v>2015</v>
@@ -1696,22 +1699,22 @@
       </c>
       <c r="E47" s="1"/>
       <c r="F47" s="1" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H47" s="1"/>
       <c r="I47" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A48" s="1" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>10</v>
+        <v>59</v>
       </c>
       <c r="C48" s="1">
         <v>2015</v>
@@ -1721,22 +1724,22 @@
       </c>
       <c r="E48" s="1"/>
       <c r="F48" s="1" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H48" s="1"/>
       <c r="I48" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A49" s="1" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>34</v>
+        <v>58</v>
       </c>
       <c r="C49" s="1">
         <v>2015</v>
@@ -1746,22 +1749,22 @@
       </c>
       <c r="E49" s="1"/>
       <c r="F49" s="1" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="H49" s="1"/>
       <c r="I49" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A50" s="1" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>34</v>
+        <v>58</v>
       </c>
       <c r="C50" s="1">
         <v>2015</v>
@@ -1771,22 +1774,22 @@
       </c>
       <c r="E50" s="1"/>
       <c r="F50" s="1" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="H50" s="1"/>
       <c r="I50" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A51" s="1" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>14</v>
+        <v>61</v>
       </c>
       <c r="C51" s="1">
         <v>2015</v>
@@ -1796,22 +1799,22 @@
       </c>
       <c r="E51" s="1"/>
       <c r="F51" s="1" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="H51" s="1"/>
       <c r="I51" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A52" s="1" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>10</v>
+        <v>59</v>
       </c>
       <c r="C52" s="1">
         <v>2015</v>
@@ -1821,19 +1824,19 @@
       </c>
       <c r="E52" s="1"/>
       <c r="F52" s="1" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="H52" s="1"/>
       <c r="I52" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A53" s="1" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="B53" s="1"/>
       <c r="C53" s="1">
@@ -1844,7 +1847,7 @@
       </c>
       <c r="E53" s="1"/>
       <c r="F53" s="1" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="G53" s="1"/>
       <c r="H53" s="1"/>
@@ -1852,12 +1855,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A54" s="1" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>10</v>
+        <v>59</v>
       </c>
       <c r="C54" s="1">
         <v>2015</v>
@@ -1867,7 +1870,7 @@
       </c>
       <c r="E54" s="1"/>
       <c r="F54" s="1" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="G54" s="1"/>
       <c r="H54" s="1"/>
@@ -1876,6 +1879,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:I54" xr:uid="{2BC77A2D-7C42-4430-8B16-6204AC970E43}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>